--- a/data-raw/labels_en.xlsx
+++ b/data-raw/labels_en.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vehicle_type" sheetId="1" state="visible" r:id="rId2"/>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Half Fare</t>
   </si>
   <si>
-    <t xml:space="preserve">Modular Travelcard (fare networs)</t>
+    <t xml:space="preserve">Modular Travelcard (fare networks)</t>
   </si>
   <si>
     <t xml:space="preserve">First</t>
@@ -357,7 +357,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
   </cols>
@@ -498,7 +498,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -551,7 +551,7 @@
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -604,7 +604,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -657,7 +657,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -716,10 +716,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -780,7 +780,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -830,10 +830,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -886,7 +886,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -936,7 +936,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -994,11 +994,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1060,7 +1060,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
   </cols>
@@ -1161,7 +1161,7 @@
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.1"/>
   </cols>
@@ -1431,11 +1431,11 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1706,7 +1706,7 @@
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1768,7 +1768,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1830,7 +1830,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1892,7 +1892,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1945,7 +1945,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data-raw/labels_en.xlsx
+++ b/data-raw/labels_en.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="vehicle_type" sheetId="1" state="visible" r:id="rId2"/>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Half Fare</t>
   </si>
   <si>
-    <t xml:space="preserve">Modular Travelcard (fare networks)</t>
+    <t xml:space="preserve">Regional Season Ticket</t>
   </si>
   <si>
     <t xml:space="preserve">First</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Second</t>
   </si>
   <si>
-    <t xml:space="preserve">1-2 zones</t>
+    <t xml:space="preserve">2 zones</t>
   </si>
   <si>
     <t xml:space="preserve">Whole fare network</t>
@@ -357,7 +357,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
   </cols>
@@ -498,7 +498,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -551,7 +551,7 @@
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -604,7 +604,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -657,7 +657,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -716,10 +716,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -780,7 +780,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -829,11 +829,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -886,7 +886,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -936,7 +936,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -998,7 +998,7 @@
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1060,7 +1060,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
   </cols>
@@ -1161,7 +1161,7 @@
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.1"/>
   </cols>
@@ -1431,11 +1431,11 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1706,7 +1706,7 @@
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1768,7 +1768,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1830,7 +1830,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1892,7 +1892,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1945,7 +1945,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
